--- a/FactorLib/resource/user_dummy.xlsx
+++ b/FactorLib/resource/user_dummy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="class_1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,46 @@
   </si>
   <si>
     <t>成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycleUpper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycleMedian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycleLower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherFinance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realEstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comsume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,16 +534,17 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,323 +555,323 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
-        <v>9</v>
+      <c r="C30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
